--- a/P06/docs/MASS_Scrum.xlsx
+++ b/P06/docs/MASS_Scrum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bipin\Desktop\VM\cse1325\P06\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA70F69-FC11-403E-9242-53471529571A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B1F651-9AAD-4ED0-8F6E-4F70F64FB362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="172">
   <si>
     <t>Product Name:</t>
   </si>
@@ -332,9 +332,6 @@
     <t>May be a series of JOptionPane dialogs or a single unified dialog</t>
   </si>
   <si>
-    <t>CATDIALOG</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -653,9 +650,6 @@
     <t>"Create shelter class","Arraylist of animal and must be able to add and access the animals"</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>Create a main window with an title</t>
   </si>
   <si>
@@ -669,6 +663,42 @@
   </si>
   <si>
     <t>data label that display the available animal</t>
+  </si>
+  <si>
+    <t>LIZARDDIALOG</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 2</t>
+  </si>
+  <si>
+    <t>Completed Day 4</t>
+  </si>
+  <si>
+    <t>create dialog box</t>
+  </si>
+  <si>
+    <t>create widget in dialog box of different type</t>
+  </si>
+  <si>
+    <t>Use GridBagLayout and coordinate to organize the widget in different places</t>
+  </si>
+  <si>
+    <t>Make ok and cancel button and give it a observer</t>
+  </si>
+  <si>
+    <t>if ok the observer create the new animal of type Dog with the input data</t>
+  </si>
+  <si>
+    <t>Completed Day 7</t>
+  </si>
+  <si>
+    <t>exit the program when the quit is clicked(observer to quit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialog box providing the information about the the verson </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inducle the image used and give Credit to the creator and the websites </t>
   </si>
 </sst>
 </file>
@@ -1183,16 +1213,16 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,28 +1819,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,8 +3523,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -3536,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -3582,7 +3612,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="44"/>
@@ -3590,7 +3620,7 @@
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" s="5">
         <v>1001841216</v>
@@ -3728,11 +3758,11 @@
       </c>
       <c r="B14" s="2">
         <f>B13-C14</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 2")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
@@ -3752,7 +3782,7 @@
       </c>
       <c r="B15" s="2">
         <f>B14-C15</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 3")</f>
@@ -3776,7 +3806,7 @@
       </c>
       <c r="B16" s="2">
         <f>B15-C16</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3796,7 +3826,7 @@
       </c>
       <c r="B17" s="2">
         <f>B16-C17</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$104,"Finished in Sprint 4")</f>
@@ -3929,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>31</v>
@@ -3962,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>36</v>
@@ -3995,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>36</v>
@@ -4012,7 +4042,7 @@
     </row>
     <row r="27" spans="1:11" ht="15.6">
       <c r="A27" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="15">
         <v>4</v>
@@ -4028,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>36</v>
@@ -4061,7 +4091,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>31</v>
@@ -4094,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>31</v>
@@ -4123,8 +4153,12 @@
       <c r="E30" s="21">
         <v>3</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="F30" s="16">
+        <v>2</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="H30" s="22" t="s">
         <v>31</v>
       </c>
@@ -4152,8 +4186,12 @@
       <c r="E31" s="21">
         <v>2</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="F31" s="16">
+        <v>2</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="H31" s="22" t="s">
         <v>31</v>
       </c>
@@ -4181,8 +4219,12 @@
       <c r="E32" s="21">
         <v>13</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
+      <c r="F32" s="16">
+        <v>2</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="H32" s="22" t="s">
         <v>36</v>
       </c>
@@ -4198,7 +4240,7 @@
     </row>
     <row r="33" spans="1:1024" ht="28.8">
       <c r="A33" s="19" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="B33" s="21">
         <v>10</v>
@@ -4210,24 +4252,28 @@
       <c r="E33" s="21">
         <v>8</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
+      <c r="F33" s="16">
+        <v>2</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="H33" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I33" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="23" t="s">
+      <c r="K33" s="23" t="s">
         <v>67</v>
-      </c>
-      <c r="K33" s="23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:1024" ht="39.6">
       <c r="A34" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="21">
         <v>11</v>
@@ -4239,24 +4285,28 @@
       <c r="E34" s="21">
         <v>5</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
+      <c r="F34" s="16">
+        <v>2</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="H34" s="22" t="s">
         <v>36</v>
       </c>
       <c r="I34" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="J34" s="23" t="s">
+      <c r="K34" s="23" t="s">
         <v>71</v>
-      </c>
-      <c r="K34" s="23" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1024" s="24" customFormat="1" ht="26.4">
       <c r="A35" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="15">
         <v>12</v>
@@ -4271,21 +4321,21 @@
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
       <c r="H35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="J35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="K35" s="18" t="s">
         <v>76</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:1024" s="24" customFormat="1" ht="26.4">
       <c r="A36" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="15">
         <v>13</v>
@@ -4300,21 +4350,21 @@
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:1024" s="24" customFormat="1">
       <c r="A37" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="15">
         <v>14</v>
@@ -4329,21 +4379,21 @@
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="J37" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="K37" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:1024" s="24" customFormat="1">
       <c r="A38" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B38" s="15">
         <v>15</v>
@@ -4358,21 +4408,21 @@
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="K38" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:1024" s="24" customFormat="1">
       <c r="A39" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="15">
         <v>16</v>
@@ -4387,21 +4437,21 @@
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I39" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J39" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="K39" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:1024" ht="26.4">
       <c r="A40" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="21">
         <v>17</v>
@@ -4419,13 +4469,13 @@
         <v>36</v>
       </c>
       <c r="I40" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="23" t="s">
+      <c r="K40" s="23" t="s">
         <v>96</v>
-      </c>
-      <c r="K40" s="23" t="s">
-        <v>97</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -5443,7 +5493,7 @@
     </row>
     <row r="41" spans="1:1024" ht="26.4">
       <c r="A41" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="21">
         <v>18</v>
@@ -5459,13 +5509,13 @@
       <c r="G41" s="16"/>
       <c r="H41" s="22"/>
       <c r="I41" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="K41" s="23" t="s">
         <v>100</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -6483,7 +6533,7 @@
     </row>
     <row r="42" spans="1:1024" ht="26.4">
       <c r="A42" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="21">
         <v>19</v>
@@ -6501,18 +6551,18 @@
         <v>36</v>
       </c>
       <c r="I42" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J42" s="23" t="s">
+      <c r="K42" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="K42" s="23" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:1024">
       <c r="A43" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" s="21">
         <v>20</v>
@@ -6527,21 +6577,21 @@
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="J43" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="K43" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="K43" s="23" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:1024" s="24" customFormat="1">
       <c r="A44" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="15">
         <v>21</v>
@@ -6556,21 +6606,21 @@
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I44" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J44" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="K44" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1024" s="24" customFormat="1" ht="26.4">
       <c r="A45" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="15">
         <v>22</v>
@@ -6588,13 +6638,13 @@
         <v>36</v>
       </c>
       <c r="I45" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="J45" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="K45" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:1024" s="24" customFormat="1" ht="4.5" customHeight="1">
@@ -6620,21 +6670,21 @@
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:1024" ht="26.4">
       <c r="A48" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="21">
         <v>4</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="21">
         <v>5</v>
@@ -6642,28 +6692,28 @@
       <c r="F48" s="16"/>
       <c r="G48" s="16"/>
       <c r="H48" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I48" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J48" s="23" t="s">
+      <c r="K48" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="K48" s="23" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="24" customFormat="1" ht="26.4">
       <c r="A49" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="21">
         <v>4</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="21">
         <v>8</v>
@@ -6671,16 +6721,16 @@
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
       <c r="H49" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I49" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J49" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="J49" s="23" t="s">
+      <c r="K49" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="K49" s="23" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -7422,14 +7472,14 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="34">
         <v>44614</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -7438,7 +7488,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -7453,10 +7503,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -7481,7 +7531,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -7491,7 +7541,7 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
@@ -7506,7 +7556,7 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -7524,7 +7574,7 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
@@ -7542,7 +7592,7 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
@@ -7560,7 +7610,7 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
@@ -7578,7 +7628,7 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
@@ -7596,7 +7646,7 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
@@ -7614,7 +7664,7 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
@@ -7642,16 +7692,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -7668,10 +7718,10 @@
         <v>30</v>
       </c>
       <c r="D17" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="41" t="s">
         <v>149</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7682,10 +7732,10 @@
         <v>35</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7693,13 +7743,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>152</v>
-      </c>
       <c r="E19" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7710,10 +7760,10 @@
         <v>40</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8408,8 +8458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -8440,7 +8490,7 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="34">
         <f>'Sprint 01 Backlog'!B3</f>
@@ -8448,7 +8498,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -8457,7 +8507,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -8472,10 +8522,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -8500,7 +8550,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -8510,11 +8560,11 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -8525,11 +8575,11 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C8" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -8543,11 +8593,11 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C9" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -8561,15 +8611,15 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C10" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
@@ -8579,15 +8629,15 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
@@ -8597,11 +8647,11 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C12" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -8615,11 +8665,11 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -8633,15 +8683,15 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -8661,16 +8711,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -8687,10 +8737,10 @@
         <v>47</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8701,10 +8751,10 @@
         <v>47</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8715,7 +8765,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>156</v>
@@ -8729,10 +8779,10 @@
         <v>47</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8740,106 +8790,182 @@
         <v>5</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
+      <c r="B22" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
+      <c r="B23" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="B24" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>9</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="B25" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
         <v>10</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
         <v>11</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
+      <c r="B28" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
+      <c r="B29" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
+      <c r="B30" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
         <v>15</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
+      <c r="B31" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
         <v>16</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="41"/>
+      <c r="B32" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
         <v>17</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="41"/>
+      <c r="B33" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
@@ -9461,7 +9587,7 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="34">
         <f>'Sprint 02 Backlog'!B2+7</f>
@@ -9469,7 +9595,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -9478,7 +9604,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -9493,10 +9619,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -9521,7 +9647,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -9531,7 +9657,7 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
@@ -9546,7 +9672,7 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -9564,7 +9690,7 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
@@ -9582,7 +9708,7 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
@@ -9600,7 +9726,7 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
@@ -9618,7 +9744,7 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
@@ -9636,7 +9762,7 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
@@ -9654,7 +9780,7 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
@@ -9682,16 +9808,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -9706,7 +9832,7 @@
       </c>
       <c r="B17" s="39"/>
       <c r="D17" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="41"/>
     </row>
@@ -10458,14 +10584,14 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="34">
         <v>44663</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -10474,7 +10600,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -10489,10 +10615,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -10517,7 +10643,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -10527,7 +10653,7 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
@@ -10542,7 +10668,7 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -10560,7 +10686,7 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
@@ -10578,7 +10704,7 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
@@ -10596,7 +10722,7 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
@@ -10614,7 +10740,7 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
@@ -10632,7 +10758,7 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
@@ -10650,7 +10776,7 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
@@ -10678,16 +10804,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -10702,7 +10828,7 @@
       </c>
       <c r="B17" s="39"/>
       <c r="D17" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="41"/>
     </row>
@@ -11454,7 +11580,7 @@
     </row>
     <row r="2" spans="1:1024" s="33" customFormat="1">
       <c r="A2" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="34">
         <f>'Sprint 04 Backlog'!B2+7</f>
@@ -11462,7 +11588,7 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
@@ -11471,7 +11597,7 @@
     </row>
     <row r="3" spans="1:1024" s="33" customFormat="1">
       <c r="A3" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="34">
         <f>B2+7</f>
@@ -11486,10 +11612,10 @@
     </row>
     <row r="4" spans="1:1024" s="33" customFormat="1">
       <c r="A4" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -11514,7 +11640,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
@@ -11524,7 +11650,7 @@
     </row>
     <row r="7" spans="1:1024" s="33" customFormat="1">
       <c r="A7" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
@@ -11539,7 +11665,7 @@
     </row>
     <row r="8" spans="1:1024" s="33" customFormat="1">
       <c r="A8" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="31">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
@@ -11557,7 +11683,7 @@
     </row>
     <row r="9" spans="1:1024" s="33" customFormat="1">
       <c r="A9" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="31">
         <f t="shared" si="0"/>
@@ -11575,7 +11701,7 @@
     </row>
     <row r="10" spans="1:1024" s="33" customFormat="1">
       <c r="A10" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="31">
         <f t="shared" si="0"/>
@@ -11593,7 +11719,7 @@
     </row>
     <row r="11" spans="1:1024" s="33" customFormat="1">
       <c r="A11" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="31">
         <f t="shared" si="0"/>
@@ -11611,7 +11737,7 @@
     </row>
     <row r="12" spans="1:1024" s="33" customFormat="1">
       <c r="A12" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="31">
         <f t="shared" si="0"/>
@@ -11629,7 +11755,7 @@
     </row>
     <row r="13" spans="1:1024" s="33" customFormat="1">
       <c r="A13" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
@@ -11647,7 +11773,7 @@
     </row>
     <row r="14" spans="1:1024" s="33" customFormat="1">
       <c r="A14" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
@@ -11675,16 +11801,16 @@
     </row>
     <row r="16" spans="1:1024">
       <c r="A16" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="38" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="38" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>144</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>25</v>
@@ -11699,7 +11825,7 @@
       </c>
       <c r="B17" s="39"/>
       <c r="D17" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="41"/>
     </row>
